--- a/Companies/Pharmaceuticals & Drugs/Cipla Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
+++ b/Companies/Pharmaceuticals & Drugs/Cipla Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '18</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '18</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '19</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '19</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '19</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '19</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '19</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '18</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '18</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>3,035.62</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2,754.08</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3,276.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3,126.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>3,230.08</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3,126.21</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3,276.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2,754.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3,035.62</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>3276.07</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>2754.08</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>3084.412</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>59.09</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>180.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>103.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>140.10</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>103.12</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>180.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>59.09</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>180.46</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>59.09</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>112.778</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>3,094.71</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2,835.20</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3,456.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3,229.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>3,370.18</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3,229.33</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3,456.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2,835.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3,094.71</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>3456.53</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>2835.2</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>3197.19</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>764.56</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>771.48</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>810.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>767.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>769.62</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>767.89</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>810.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>771.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>764.56</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>810.51</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>764.5599999999999</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>776.812</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>337.66</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>348.19</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>285.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>328.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>320.06</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>328.02</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>285.75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>348.19</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>337.66</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>348.19</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>285.75</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>323.936</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>58.43</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-94.64</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-206.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>35.04</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-206.16</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>72.66</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-94.64</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>58.43</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>72.66</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-206.16</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-26.934</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>456.02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>466.90</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>458.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>480.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>479.54</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>480.15</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>458.86</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>466.90</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>456.02</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>480.15</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>456.02</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>468.294</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>141.04</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>148.58</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>144.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>145.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>150.93</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>145.29</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>144.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>148.58</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>141.04</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>150.93</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>141.04</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>146.092</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>905.98</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>857.19</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>941.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>821.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>997.97</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>821.83</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>941.57</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>857.19</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>905.98</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>997.97</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>821.83</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>904.908</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>431.02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>337.50</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>742.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>892.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>617.02</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>892.31</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>742.56</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>337.50</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>431.02</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>892.3099999999999</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>337.5</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>604.082</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>300.11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>312.75</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>76.95</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>300.11</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>312.75</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>76.95</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>175.522</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>731.13</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>414.45</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>836.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>985.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>929.77</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>985.72</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>836.95</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>414.45</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>731.13</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>985.72</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>414.45</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>779.604</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>9.87</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.70</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>6.378</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>723.43</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>411.51</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>832.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>978.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>919.90</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>978.33</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>832.96</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>411.51</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>723.43</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>978.33</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>411.51</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>773.226</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>723.43</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>411.51</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>832.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>978.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>919.90</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>978.33</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>832.96</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>411.51</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>723.43</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>978.33</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>411.51</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>773.226</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>154.96</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>116.19</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>198.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>284.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>182.52</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>284.33</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>198.89</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>116.19</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>154.96</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>284.33</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>116.19</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>187.378</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>568.47</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>295.32</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>634.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>694.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>737.38</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>694.00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>634.07</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>295.32</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>568.47</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>737.38</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>295.32</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>585.8480000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>568.47</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>295.32</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>634.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>694.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>737.38</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>694.00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>634.07</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>295.32</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>568.47</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>737.38</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>295.32</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>585.8480000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>161.05</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>161.13</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>161.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>161.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>161.22</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>161.17</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>161.14</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>161.13</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>161.05</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>161.22</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>161.05</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>161.142</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>9.15</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>8.61</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>7.272</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>9.14</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>7.262</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>9.15</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>8.61</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>7.272</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>9.14</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>7.262</v>
       </c>
     </row>
     <row r="31"/>
